--- a/figures/a1/figures_a1_a1.xlsx
+++ b/figures/a1/figures_a1_a1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>OCCUPATION</t>
   </si>
@@ -121,6 +121,60 @@
   </si>
   <si>
     <t>bank employees</t>
+  </si>
+  <si>
+    <t>industrial sector</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>restaurants&amp;community kitchens</t>
+  </si>
+  <si>
+    <t>medical system</t>
+  </si>
+  <si>
+    <t>court system</t>
+  </si>
+  <si>
+    <t>research dept.</t>
+  </si>
+  <si>
+    <t>fire dept.</t>
+  </si>
+  <si>
+    <t>agriculture dept.</t>
+  </si>
+  <si>
+    <t>police dept.</t>
+  </si>
+  <si>
+    <t>agriculture sector</t>
+  </si>
+  <si>
+    <t>telecom sector</t>
+  </si>
+  <si>
+    <t>banking sector</t>
+  </si>
+  <si>
+    <t>bussiness</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>A.I. supervision sector</t>
+  </si>
+  <si>
+    <t>LIFE SUPPPORT SECTOR</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -458,7 +512,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,7 +540,9 @@
         <v>28</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
@@ -498,7 +554,9 @@
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
@@ -510,7 +568,9 @@
         <v>33</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
@@ -522,7 +582,9 @@
         <v>22</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
@@ -534,7 +596,9 @@
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
@@ -546,7 +610,9 @@
         <v>12</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
@@ -558,7 +624,9 @@
         <v>23</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
@@ -570,7 +638,9 @@
         <v>26</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
@@ -582,7 +652,9 @@
         <v>2000</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
@@ -594,7 +666,9 @@
         <v>3</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
@@ -606,6 +680,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -616,6 +694,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -626,6 +708,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -636,6 +722,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -646,8 +736,12 @@
         <v>25</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -656,8 +750,12 @@
         <v>24</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,8 +764,12 @@
         <v>450</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -676,8 +778,12 @@
         <v>27</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -686,8 +792,12 @@
         <v>400</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -696,8 +806,12 @@
         <v>20</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -706,8 +820,12 @@
         <v>100</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -716,8 +834,12 @@
         <v>200</v>
       </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -726,11 +848,28 @@
         <v>500</v>
       </c>
       <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="72">
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
